--- a/117&12Domain Model address&desp.xlsx
+++ b/117&12Domain Model address&desp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F盘\博三\不完整需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zcahary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B10DF-C7A6-40A1-A75F-206373B3AD5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFE4E3-ABC2-C147-BE23-DAA47AD578BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,31 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="400">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有配套需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="401">
   <si>
     <t>Basic Formal Ontology (BFO)</t>
   </si>
@@ -72,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上层本体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The BRICO Ontology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究和教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The BRICO (for "bricolage", a French word meaning something like "robust but diverse mishmash") knowledge base is an integration of several distinct knowledge resources in FramerD. It is provided for research and educational purposes only, reflecting restrictions on the component resources which were used to generated it. The Brico knowledge base combines the following information sources:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生物医学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BPMO - The Business Process Management Ontology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> an integrated information model which helps to better align IT with business, bringing together business process design, project management, requirements management, and business performance management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,9 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件系统</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chimaera is a software system that supports users in creating and maintaining distributed ontologies on the web. Two major functions it supports are merging multiple ontologies together and diagnosing individual or multiple ontologies. It supports users in such tasks as loading knowledge bases in differing formats, reorganizing taxonomies, resolving name conflicts, browsing ontologies, editing terms, etc. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +101,6 @@
     <t>http://clipsrules.sourceforge.net/</t>
   </si>
   <si>
-    <t>专家系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A public domain, expert system shell written in C. </t>
   </si>
   <si>
@@ -162,10 +111,6 @@
     <t>http://www.jfsowa.com/clce/specs.htm</t>
   </si>
   <si>
-    <t>语言逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Common Logic Controlled English (CLCE) is a formal language with an English-like syntax. Anyone who can read ordinary English can read sentences in CLCE with little or no training. Writing CLCE, however, requires practice in learning to stay within its syntactic and semantic limitations. Formally, CLCE supports full first-order logic with equality supplemented with an ontology for sets, sequences, and integers. The fundamental semantic limitation of CLCE is that the meaning of every CLCE sentence is defined by its translation to FOL; none of the flexibility of ordinary English and none of its metaphorical or metonymic extensions are supported. The primary syntactic restrictions are the use of present tense verbs and singular nouns, variables instead of pronouns, and only a small subset of the many syntactic options permitted in English. Despite these limitations, CLCE can express the kind of English used in software specifications, textbooks of mathematics, and the definitions and axioms of formal ontology.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +125,6 @@
     <t>A freely available commonsense knowledge base and natural language processing toolkit, generated automatically from the 1,000,000 sentences (as of 2010) of the Open Mind Common Sense Project.</t>
   </si>
   <si>
-    <t>常识类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.digitalhealthnews.eu/ontology/</t>
   </si>
   <si>
@@ -191,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健康类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>promoting ways in which in which scientific methods in ontology can bring benefits to healthcare (by a partnership of IFOMIS, ECOR, and RIDE).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +142,6 @@
     <t>http://community.nzdl.org/ELKB/</t>
   </si>
   <si>
-    <t>词汇库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>An Electronic Lexical Knowledge Base (ELKB) is a model for a lexical resource, implemented in software, for classifying, indexing, storing and retrieving words with their senses and the connections that exist between them. It relies on a rich data repository to do so. This model defines explicit semantic relationships between words and word groups. It maps out an automatic process for building an electronic lexicon. It is electronic not only because it is encoded in a digital format, but rather because it is computer-usable, or tractable. This ELKB has been created from the machine readable text files with the contents of the 1987 Penguin's Roget's Thesaurus*. It must maintain the information available in the printed Thesaurus while it is put in a tractable format.</t>
   </si>
   <si>
@@ -218,10 +151,6 @@
     <t>The Enterprise Ontology</t>
   </si>
   <si>
-    <t>企业知识系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Budgetted at over £2.6 million, the Enterprise project is the UK government's major initiative to promote the use of knowledge-based systems in enterprise modelling, aiming to support organisations effectively in the Management of Change. The project focused on management innovation and the strategic use of IT to help manage change. It supports the use of enterprise modelling methods which capture various aspects of how a business works and how it is organised. The aim of enterprise modelling is to obtain an enterprise-wide view of an organisation which can then be used as a basis for taking decisions. During the Enterprise project, the Enterprise Toolset was developed. The Toolset uses executable process models to help users to perform their tasks. It is implemented using an agent-based architecture to integrate off-the-shelf tools in a plug-and-play style. The approach of the Enterprise project addresses the key problems of communication, process consistency, impacts of change, IT systems, and responsiveness.</t>
   </si>
   <si>
@@ -231,10 +160,6 @@
     <t>The Gene Ontology (GO) -</t>
   </si>
   <si>
-    <t>基因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>An ontology is a formal representation of a body of knowledge within a given domain. Ontologies usually consist of a set of classes (or terms or concepts) with relations that operate between them.</t>
   </si>
   <si>
@@ -245,10 +170,6 @@
   </si>
   <si>
     <t>http://www.ifomis.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,25 +657,12 @@
     <t>http://gnafld.net/def/gnaf</t>
   </si>
   <si>
-    <t>An ontology for the content of the PSMA Geocoded National Address File (G-NAF). The G-NAF is Australia?s authoritative, geocoded address file. It contains more than 13 million Australian physical address records. The records include geocodes which are latitude and longitude map coordinates with coordinate reference system details and other information necissary to prcicely locate addresses on the earth's surface. The G-NAF does not contain any names or personal information. The base content of the G-NAF is available freely online at &lt;https://data.gov.au/dataset/geocoded-national-address-file-g-naf&gt; and also via a Linked Data API that uses this ontology at &lt;http://gnafld.net&gt;. This ontology draws heavily from the OWL ontology version of the ISO19160-1:2015 "Addressing -- Part 1: Conceptual model" standard (see &lt;https://www.iso.org/standard/61710.html&gt;) which has been created by the ISO TC211, Group for Ontology Management (GOM) and published online by the Australian Government Linked Data Working Group at &lt;http://reference.data.gov.au/def/ont/iso19160-1-address&gt;.</t>
-  </si>
-  <si>
-    <t>物理地址记录</t>
-  </si>
-  <si>
-    <t>DoCO, the Document Components Ontology</t>
-  </si>
-  <si>
     <t>https://sparontologies.github.io/doco/current/doco.html</t>
   </si>
   <si>
     <t>The Document Components Ontology (DoCO) in an ontology that provides a structured vocabulary written of document components, both structural (e.g., block, inline, paragraph, section, chapter) and rhetorical (e.g., introduction, discussion, acknowledgements, reference list, figure, appendix).</t>
   </si>
   <si>
-    <t>文档组件本体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Entity Legal Form Ontology</t>
   </si>
   <si>
@@ -826,9 +734,6 @@
     <t>The Publishing Workflow Ontology (PWO) is a simple ontology for describing the steps in the workflow associated with the publication of a document or other publication entity.</t>
   </si>
   <si>
-    <t>工作流本体</t>
-  </si>
-  <si>
     <t>Software-Based Artworks Ontology</t>
   </si>
   <si>
@@ -836,9 +741,6 @@
   </si>
   <si>
     <t>The SBA ontology models the domain of software-based artworks. SBA was created by the Information Technologies Institute (ITI) of the Centre for Research &amp; Technology Hellas (CERTH), within the EU-funded PERICLES FP7 project. Documentation: http://mklab.iti.gr/pericles/documentation/SBA_docs.htm</t>
-  </si>
-  <si>
-    <t>艺术品</t>
   </si>
   <si>
     <t>OntoSoft</t>
@@ -1639,14 +1541,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.dronetology.net/</t>
   </si>
   <si>
     <t>dronetology, the UAV Ontology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ontology Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have requirements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper Ontology</t>
+  </si>
+  <si>
+    <t>Research and Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomedicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expert System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lexical Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise Knowledge System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical information</t>
+  </si>
+  <si>
+    <t>Medical information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoCO, the Document Components Ontology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Components</t>
+  </si>
+  <si>
+    <t>An ontology for the content of the PSMA Geocoded National Address File (G-NAF). The G-NAF is Australia?s authoritative, geocoded address file. It contains more than 13 million Australian physical address records. The records include geocodes which are latitude and longitude map coordinates with coordinate reference system details and other information necissary to prcicely locate addresses on the earth's surface. The G-NAF does not contain any names or personal information. The base content of the G-NAF is available freely online at &lt;https://data.gov.au/dataset/geocoded-national-address-file-g-naf&gt; and also via a Linked Data API that uses this ontology at &lt;http://gnafld.net&gt;. This ontology draws heavily from the OWL ontology version of the ISO19160-1:2015 "Addressing -- Part 1: Conceptual model" standard (see &lt;https://www.iso.org/standard/61710.html&gt;) which has been created by the ISO TC211, Group for Ontology Management (GOM) and published online by the Australian Government Linked Data Working Group at &lt;http://reference.data.gov.au/def/ont/iso19160-1-address&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geocoded National Address File</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1654,7 +1658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1782,12 +1786,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2071,2276 +2076,2273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="153.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="144">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="112">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="80">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="144">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>382</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>383</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="335">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="256">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="350">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="80">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="192">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="112">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="80">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="171" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="186">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="64">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="144">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="64">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="272">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="96">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="228" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="240">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="112">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="193" thickBot="1">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="61" thickBot="1">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" thickBot="1">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="241" thickBot="1">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31" thickBot="1">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="371.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="385" thickBot="1">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="106" thickBot="1">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="91" thickBot="1">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="241" thickBot="1">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="409.6" thickBot="1">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="121" thickBot="1">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="342.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="357" thickBot="1">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="61" thickBot="1">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>396</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="121" thickBot="1">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="76" thickBot="1">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" thickBot="1">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="31" thickBot="1">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" thickBot="1">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="46" thickBot="1">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="196" thickBot="1">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="46" thickBot="1">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16" thickBot="1">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F62" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="46" thickBot="1">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="46" thickBot="1">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16" thickBot="1">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="76" thickBot="1">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="314.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="329" thickBot="1">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="61" thickBot="1">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" thickBot="1">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="91" thickBot="1">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="120">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="32">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="90">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="165">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="96">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="64">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="64">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="128">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="64">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="80">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="80">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="64">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="80">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="285" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="288">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="32">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="64">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="128">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="64">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="64">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="176">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C113" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="272">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="335">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="176">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="96">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="112">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="96">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="96">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="112">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="32">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="E122" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="256">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="48">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="E124" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="80">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="E125" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="285" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="288">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="80">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="64">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="32">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="C130" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="48">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" t="s">
         <v>399</v>
-      </c>
-      <c r="C132" t="s">
-        <v>398</v>
-      </c>
-      <c r="E132" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>
